--- a/AK700单扇双扇数据.xlsx
+++ b/AK700单扇双扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F0670-C365-B149-B8B6-DBB7D611EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CE932-D9AF-D345-865D-53CF2FBFC824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="680" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>双扇</t>
+    <t>双MACH120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单扇</t>
+    <t>单MACH120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/AK700单扇双扇数据.xlsx
+++ b/AK700单扇双扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CE932-D9AF-D345-865D-53CF2FBFC824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECED838-5EC3-CB42-8FC2-0F391D98EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="680" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -402,38 +402,38 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="B2">
-        <v>77.8</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="C2">
         <v>3053</v>
       </c>
       <c r="D2">
-        <v>54.8</v>
+        <v>56.4</v>
       </c>
       <c r="E2">
-        <v>78.400000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="F2">
         <v>3053</v>
@@ -441,22 +441,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>79.3</v>
+      </c>
+      <c r="C3">
+        <v>2538</v>
+      </c>
+      <c r="D3">
         <v>49.9</v>
       </c>
-      <c r="B3">
+      <c r="E3">
         <v>78.7</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>2378</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>79.3</v>
-      </c>
-      <c r="F3">
-        <v>2538</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -464,19 +464,19 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>79.3</v>
+        <v>80.3</v>
       </c>
       <c r="C4">
-        <v>1982</v>
+        <v>2070</v>
       </c>
       <c r="D4">
         <v>45</v>
       </c>
       <c r="E4">
-        <v>80.3</v>
+        <v>79.3</v>
       </c>
       <c r="F4">
-        <v>2070</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -484,25 +484,25 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>80.599999999999994</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1675</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>81</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="F5">
-        <v>1675</v>
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
